--- a/corrup_limpo.xlsx
+++ b/corrup_limpo.xlsx
@@ -14,60 +14,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>Country Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+  <si>
+    <t>Corrupção 2015</t>
+  </si>
+  <si>
+    <t>Países</t>
   </si>
   <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>Arab World</t>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
   </si>
   <si>
     <t>Burundi</t>
   </si>
   <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
   </si>
   <si>
     <t>Central African Republic</t>
   </si>
   <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Congo, Rep.</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>Cote d'Ivoire</t>
   </si>
   <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Congo, Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Congo, Rep.</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Caribbean small states</t>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
   </si>
   <si>
     <t>Djibouti</t>
@@ -76,289 +160,391 @@
     <t>Dominica</t>
   </si>
   <si>
-    <t>East Asia &amp; Pacific (excluding high income)</t>
-  </si>
-  <si>
-    <t>Early-demographic dividend</t>
-  </si>
-  <si>
-    <t>East Asia &amp; Pacific</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia (excluding high income)</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia</t>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
   </si>
   <si>
     <t>Eritrea</t>
   </si>
   <si>
+    <t>Estonia</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>Fragile and conflict affected situations</t>
-  </si>
-  <si>
-    <t>Micronesia, Fed. Sts.</t>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
   <si>
     <t>Ghana</t>
   </si>
   <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
     <t>Guinea</t>
   </si>
   <si>
-    <t>Gambia, The</t>
-  </si>
-  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
-    <t>Grenada</t>
-  </si>
-  <si>
     <t>Guyana</t>
   </si>
   <si>
+    <t>Haiti</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
-    <t>Heavily indebted poor countries (HIPC)</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>IBRD only</t>
-  </si>
-  <si>
-    <t>IDA &amp; IBRD total</t>
-  </si>
-  <si>
-    <t>IDA total</t>
-  </si>
-  <si>
-    <t>IDA blend</t>
-  </si>
-  <si>
-    <t>IDA only</t>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
   </si>
   <si>
     <t>Kenya</t>
   </si>
   <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
     <t>Kyrgyz Republic</t>
   </si>
   <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Latin America &amp; Caribbean (excluding high income)</t>
-  </si>
-  <si>
-    <t>Lao PDR</t>
+    <t>Lao</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
   </si>
   <si>
     <t>Liberia</t>
   </si>
   <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macedonia, FYR</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
     <t>St. Lucia</t>
   </si>
   <si>
-    <t>Latin America &amp; Caribbean</t>
-  </si>
-  <si>
-    <t>Least developed countries: UN classification</t>
-  </si>
-  <si>
-    <t>Low income</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Lower middle income</t>
-  </si>
-  <si>
-    <t>Low &amp; middle income</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Late-demographic dividend</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Middle East &amp; North Africa</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Middle income</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Middle East &amp; North Africa (excluding high income)</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Other small states</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Pre-demographic dividend</t>
-  </si>
-  <si>
-    <t>Pacific island small states</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>South Asia</t>
+    <t>St. Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Sudan</t>
   </si>
   <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa (excluding high income)</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t>Small states</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>East Asia &amp; Pacific (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia (IDA &amp; IBRD countries)</t>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
   </si>
   <si>
     <t>Togo</t>
   </si>
   <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Latin America &amp; the Caribbean (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Middle East &amp; North Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>South Asia (IDA &amp; IBRD)</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
   </si>
   <si>
     <t>Uganda</t>
   </si>
   <si>
-    <t>Upper middle income</t>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
   </si>
   <si>
     <t>Uzbekistan</t>
   </si>
   <si>
-    <t>St. Vincent and the Grenadines</t>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
   </si>
   <si>
     <t>Vietnam</t>
   </si>
   <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Yemen, Rep.</t>
+    <t>Yemen</t>
   </si>
   <si>
     <t>Zambia</t>
@@ -722,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -749,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -757,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -765,7 +951,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -773,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -781,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -789,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -797,7 +983,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4.5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -805,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -813,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -821,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2.5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -829,7 +1015,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -837,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -845,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -853,7 +1039,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>4.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -861,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3.9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -869,7 +1055,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -877,7 +1063,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -885,7 +1071,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>3.133333333333333</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -893,7 +1079,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>3.016666666666667</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -901,7 +1087,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>3.133333333333333</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -909,7 +1095,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -917,7 +1103,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2.6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -925,7 +1111,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -933,7 +1119,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -941,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2.516666666666667</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -949,7 +1135,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>3.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -957,7 +1143,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3.5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -965,7 +1151,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -973,7 +1159,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -981,7 +1167,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -989,7 +1175,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -997,7 +1183,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1005,7 +1191,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1013,7 +1199,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2.697368421052631</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1021,7 +1207,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1029,7 +1215,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1037,7 +1223,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2.881578947368421</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1045,7 +1231,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2.876712328767123</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1053,7 +1239,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>3.125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1061,7 +1247,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2.807017543859649</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1069,7 +1255,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1077,7 +1263,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1085,7 +1271,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1093,7 +1279,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>3.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1101,7 +1287,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>3.444444444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1109,7 +1295,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1117,7 +1303,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1125,7 +1311,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>4.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1133,7 +1319,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>3.444444444444445</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1141,7 +1327,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>2.688888888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1149,7 +1335,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2.548387096774194</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1157,7 +1343,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1165,7 +1351,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2.942857142857143</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1173,7 +1359,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>2.881578947368421</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1181,7 +1367,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1189,7 +1375,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>3.3125</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1197,7 +1383,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>2.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1205,7 +1391,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>2.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1213,7 +1399,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1221,7 +1407,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1229,7 +1415,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>3.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1237,7 +1423,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>3.111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1245,7 +1431,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1253,7 +1439,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1261,7 +1447,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1269,7 +1455,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>3.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1277,7 +1463,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>2.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1285,7 +1471,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1293,7 +1479,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>2.5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1301,7 +1487,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1309,7 +1495,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1317,7 +1503,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1325,7 +1511,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1333,7 +1519,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1341,7 +1527,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1349,7 +1535,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1357,7 +1543,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>2.560606060606061</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1365,7 +1551,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>3.4375</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1373,7 +1559,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>3.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1381,7 +1567,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1389,7 +1575,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>1.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1397,7 +1583,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>3.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1405,7 +1591,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1413,7 +1599,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1421,7 +1607,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>2.710526315789474</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1429,7 +1615,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1.5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1437,7 +1623,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>2.710526315789474</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1445,7 +1631,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>3.347826086956522</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1453,7 +1639,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>3.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1461,7 +1647,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>2.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1469,7 +1655,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>3.133333333333333</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1477,7 +1663,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>2.6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1485,7 +1671,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>2.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1493,7 +1679,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>2.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1501,7 +1687,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3.444444444444445</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1509,7 +1695,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>2.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1517,7 +1703,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1525,7 +1711,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>3.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1533,7 +1719,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1541,7 +1727,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>2.710526315789474</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1549,7 +1735,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>3.5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1557,7 +1743,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1565,7 +1751,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1573,7 +1759,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>3.7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1581,7 +1767,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1589,7 +1775,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1597,7 +1783,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1605,7 +1791,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1613,7 +1799,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>2.881578947368421</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1621,7 +1807,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1629,7 +1815,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1637,7 +1823,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>1.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1645,7 +1831,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1653,7 +1839,503 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
